--- a/05-Study_two/Data Analysis/Performance/performance.xlsx
+++ b/05-Study_two/Data Analysis/Performance/performance.xlsx
@@ -5,19 +5,21 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/Study 2/Data Analysis/Performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/05-Study_two/Data Analysis/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="4140" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="15960" yWindow="460" windowWidth="19200" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="users.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users.csv!$A$1:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users.csv!$A$1:$G$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Phase 1 report</t>
   </si>
@@ -36,9 +38,6 @@
   </si>
   <si>
     <t>phase 2 report</t>
-  </si>
-  <si>
-    <t>questionnaire</t>
   </si>
   <si>
     <t>User</t>
@@ -51,6 +50,18 @@
   </si>
   <si>
     <t>Phase1+2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Phase1 score</t>
+  </si>
+  <si>
+    <t>Phase2 score</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -324,6 +335,1097 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phase1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phase2 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2140170368"/>
+        <c:axId val="-2050845952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140170368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050845952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2050845952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2140170368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,20 +1750,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -670,280 +1777,285 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>197</v>
-      </c>
-      <c r="B2">
-        <v>158</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
       </c>
       <c r="G2">
         <f>C2+E2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>C3+E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>C4+E4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>165</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>C5+E5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>C6+E6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>179</v>
+      </c>
+      <c r="B7" s="1">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f>C7+E7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>171</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <f>C8+E8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>186</v>
+      </c>
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <f>C9+E9</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>209</v>
-      </c>
-      <c r="B3">
-        <v>158</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <v>165</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">C3+E3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>186</v>
-      </c>
-      <c r="B4">
-        <v>158</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>159</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>150</v>
-      </c>
-      <c r="B6">
-        <v>159</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>191</v>
-      </c>
-      <c r="B7">
-        <v>159</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>201</v>
-      </c>
-      <c r="B8" s="1">
-        <v>163</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>206</v>
-      </c>
-      <c r="B9" s="1">
-        <v>163</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>179</v>
-      </c>
-      <c r="B10" s="1">
-        <v>163</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
+      <c r="D10"/>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10"/>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <f>C10+E10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B11">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>C11+E11</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>C12+E12</f>
         <v>6</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>180</v>
-      </c>
-      <c r="B12">
-        <v>164</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B13">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <f>C13+E13</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B14">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <f>C14+E14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B15">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <f>C15+E15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>198</v>
       </c>
@@ -957,35 +2069,352 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>C16+E16</f>
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>188</v>
-      </c>
-      <c r="B17">
-        <v>171</v>
-      </c>
-      <c r="C17">
+      <c r="A17" s="1">
+        <v>201</v>
+      </c>
+      <c r="B17" s="1">
+        <v>163</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17">
+        <f>C17+E17</f>
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>7</v>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>206</v>
+      </c>
+      <c r="B18" s="1">
+        <v>163</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18">
+        <f>C18+E18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>209</v>
+      </c>
+      <c r="B19">
+        <v>158</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f>C19+E19</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17">
-    <sortState ref="A2:G33">
-      <sortCondition ref="B1:B33"/>
+  <autoFilter ref="A1:G13">
+    <sortState ref="A2:G19">
+      <sortCondition ref="A1:A19"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>163</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F7" si="0">B2+D2</f>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H7" si="1">B2/C2</f>
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="2">D2/E2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="3">F2/G2</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>171</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.4375</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J7">
+    <sortState ref="A2:J7">
+      <sortCondition ref="J1:J7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>